--- a/dashboard/Base de dados.xlsx
+++ b/dashboard/Base de dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\planilhas\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Aulas\Bootcamp-DataScience\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F8ED6-40B2-4E08-832A-7140AC03FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CBE0C-260E-4A95-9230-3852EEBAA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -986,7 +975,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1085,7 +1074,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1105,7 +1094,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,31 +1103,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1949,7 +1914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
     <filterColumn colId="7">
       <filters>
@@ -1958,19 +1923,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2298,7 +2263,7 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2471,8 +2436,8 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I294"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:M296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="10">
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
@@ -2667,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="10">
-        <v>45342</v>
+        <v>45708</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>23</v>
@@ -2790,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="10">
-        <v>45354</v>
+        <v>45719</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -2872,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="10">
-        <v>45356</v>
+        <v>45721</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>23</v>
@@ -2995,7 +2960,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="10">
-        <v>45359</v>
+        <v>45724</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>19</v>
@@ -3118,7 +3083,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="10">
-        <v>45362</v>
+        <v>45727</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>23</v>
@@ -3241,7 +3206,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="10">
-        <v>45365</v>
+        <v>45730</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>19</v>
@@ -3364,7 +3329,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="10">
-        <v>45368</v>
+        <v>45733</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>23</v>
@@ -3487,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="10">
-        <v>45371</v>
+        <v>45736</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>19</v>
@@ -3610,7 +3575,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="10">
-        <v>45374</v>
+        <v>45739</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>23</v>
@@ -3733,7 +3698,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="10">
-        <v>45377</v>
+        <v>45742</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>19</v>
@@ -3856,7 +3821,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="10">
-        <v>45380</v>
+        <v>45745</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>23</v>
@@ -4020,7 +3985,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="10">
-        <v>45384</v>
+        <v>45749</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>23</v>
@@ -4143,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="10">
-        <v>45387</v>
+        <v>45752</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>19</v>
@@ -4266,7 +4231,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="10">
-        <v>45390</v>
+        <v>45755</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>23</v>
@@ -4389,7 +4354,7 @@
         <v>18</v>
       </c>
       <c r="D47" s="10">
-        <v>45393</v>
+        <v>45758</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>19</v>
@@ -4512,7 +4477,7 @@
         <v>18</v>
       </c>
       <c r="D50" s="10">
-        <v>45396</v>
+        <v>45761</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>23</v>
@@ -4635,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="10">
-        <v>45399</v>
+        <v>45764</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>19</v>
@@ -4758,7 +4723,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="10">
-        <v>45402</v>
+        <v>45767</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>23</v>
@@ -4881,7 +4846,7 @@
         <v>18</v>
       </c>
       <c r="D59" s="10">
-        <v>45405</v>
+        <v>45770</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>19</v>
@@ -5004,7 +4969,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="10">
-        <v>45408</v>
+        <v>45773</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>23</v>
@@ -5127,7 +5092,7 @@
         <v>18</v>
       </c>
       <c r="D65" s="10">
-        <v>45411</v>
+        <v>45776</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>19</v>
@@ -5250,7 +5215,7 @@
         <v>18</v>
       </c>
       <c r="D68" s="10">
-        <v>45414</v>
+        <v>45779</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>19</v>
@@ -5373,7 +5338,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="10">
-        <v>45417</v>
+        <v>45782</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>23</v>
@@ -5496,7 +5461,7 @@
         <v>18</v>
       </c>
       <c r="D74" s="10">
-        <v>45420</v>
+        <v>45785</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>19</v>
@@ -5619,7 +5584,7 @@
         <v>18</v>
       </c>
       <c r="D77" s="10">
-        <v>45423</v>
+        <v>45788</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>23</v>
@@ -5742,7 +5707,7 @@
         <v>18</v>
       </c>
       <c r="D80" s="10">
-        <v>45426</v>
+        <v>45791</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>19</v>
@@ -5865,7 +5830,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="10">
-        <v>45429</v>
+        <v>45794</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>23</v>
@@ -5988,7 +5953,7 @@
         <v>18</v>
       </c>
       <c r="D86" s="10">
-        <v>45432</v>
+        <v>45797</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>19</v>
@@ -6111,7 +6076,7 @@
         <v>18</v>
       </c>
       <c r="D89" s="10">
-        <v>45435</v>
+        <v>45800</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>23</v>
@@ -6234,7 +6199,7 @@
         <v>18</v>
       </c>
       <c r="D92" s="10">
-        <v>45438</v>
+        <v>45803</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>19</v>
@@ -6357,7 +6322,7 @@
         <v>18</v>
       </c>
       <c r="D95" s="10">
-        <v>45441</v>
+        <v>45806</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>23</v>
@@ -6480,7 +6445,7 @@
         <v>18</v>
       </c>
       <c r="D98" s="10">
-        <v>45444</v>
+        <v>45809</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>19</v>
@@ -6603,7 +6568,7 @@
         <v>18</v>
       </c>
       <c r="D101" s="10">
-        <v>45447</v>
+        <v>45812</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>23</v>
@@ -6726,7 +6691,7 @@
         <v>18</v>
       </c>
       <c r="D104" s="10">
-        <v>45450</v>
+        <v>45815</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>19</v>
@@ -6890,7 +6855,7 @@
         <v>18</v>
       </c>
       <c r="D108" s="10">
-        <v>45454</v>
+        <v>45819</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>23</v>
@@ -7013,7 +6978,7 @@
         <v>18</v>
       </c>
       <c r="D111" s="10">
-        <v>45457</v>
+        <v>45822</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>19</v>
@@ -7136,7 +7101,7 @@
         <v>18</v>
       </c>
       <c r="D114" s="10">
-        <v>45460</v>
+        <v>45825</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>23</v>
@@ -7259,7 +7224,7 @@
         <v>18</v>
       </c>
       <c r="D117" s="10">
-        <v>45463</v>
+        <v>45828</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>19</v>
@@ -7382,7 +7347,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="10">
-        <v>45466</v>
+        <v>45831</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>23</v>
@@ -7505,7 +7470,7 @@
         <v>18</v>
       </c>
       <c r="D123" s="10">
-        <v>45469</v>
+        <v>45834</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>19</v>
@@ -7628,7 +7593,7 @@
         <v>18</v>
       </c>
       <c r="D126" s="10">
-        <v>45472</v>
+        <v>45837</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>23</v>
@@ -7751,7 +7716,7 @@
         <v>18</v>
       </c>
       <c r="D129" s="10">
-        <v>45475</v>
+        <v>45840</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>19</v>
@@ -7874,7 +7839,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="10">
-        <v>45478</v>
+        <v>45843</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>23</v>
@@ -7997,7 +7962,7 @@
         <v>18</v>
       </c>
       <c r="D135" s="10">
-        <v>45481</v>
+        <v>45846</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>19</v>
@@ -8120,7 +8085,7 @@
         <v>18</v>
       </c>
       <c r="D138" s="10">
-        <v>45484</v>
+        <v>45849</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>23</v>
@@ -8243,7 +8208,7 @@
         <v>18</v>
       </c>
       <c r="D141" s="10">
-        <v>45487</v>
+        <v>45852</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>19</v>
@@ -8366,7 +8331,7 @@
         <v>18</v>
       </c>
       <c r="D144" s="10">
-        <v>45490</v>
+        <v>45855</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>23</v>
@@ -8489,7 +8454,7 @@
         <v>18</v>
       </c>
       <c r="D147" s="10">
-        <v>45493</v>
+        <v>45858</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>19</v>
@@ -8612,7 +8577,7 @@
         <v>18</v>
       </c>
       <c r="D150" s="10">
-        <v>45496</v>
+        <v>45861</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>23</v>
@@ -8735,7 +8700,7 @@
         <v>18</v>
       </c>
       <c r="D153" s="10">
-        <v>45499</v>
+        <v>45864</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>19</v>
@@ -8858,7 +8823,7 @@
         <v>18</v>
       </c>
       <c r="D156" s="10">
-        <v>45502</v>
+        <v>45867</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>23</v>
@@ -8981,7 +8946,7 @@
         <v>18</v>
       </c>
       <c r="D159" s="10">
-        <v>45505</v>
+        <v>45870</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>19</v>
@@ -9104,7 +9069,7 @@
         <v>18</v>
       </c>
       <c r="D162" s="10">
-        <v>45508</v>
+        <v>45873</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>23</v>
@@ -9227,7 +9192,7 @@
         <v>18</v>
       </c>
       <c r="D165" s="10">
-        <v>45511</v>
+        <v>45876</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>19</v>
@@ -9350,7 +9315,7 @@
         <v>18</v>
       </c>
       <c r="D168" s="10">
-        <v>45514</v>
+        <v>45879</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>23</v>
@@ -9473,7 +9438,7 @@
         <v>18</v>
       </c>
       <c r="D171" s="10">
-        <v>45517</v>
+        <v>45882</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>19</v>
@@ -9596,7 +9561,7 @@
         <v>18</v>
       </c>
       <c r="D174" s="10">
-        <v>45520</v>
+        <v>45885</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>23</v>
@@ -9760,7 +9725,7 @@
         <v>18</v>
       </c>
       <c r="D178" s="10">
-        <v>45524</v>
+        <v>45889</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>23</v>
@@ -9883,7 +9848,7 @@
         <v>18</v>
       </c>
       <c r="D181" s="10">
-        <v>45527</v>
+        <v>45892</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>19</v>
@@ -10006,7 +9971,7 @@
         <v>18</v>
       </c>
       <c r="D184" s="10">
-        <v>45530</v>
+        <v>45895</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>23</v>
@@ -10129,7 +10094,7 @@
         <v>18</v>
       </c>
       <c r="D187" s="10">
-        <v>45533</v>
+        <v>45898</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>19</v>
@@ -10252,7 +10217,7 @@
         <v>18</v>
       </c>
       <c r="D190" s="10">
-        <v>45536</v>
+        <v>45901</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>23</v>
@@ -10375,7 +10340,7 @@
         <v>18</v>
       </c>
       <c r="D193" s="10">
-        <v>45539</v>
+        <v>45904</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>19</v>
@@ -10498,7 +10463,7 @@
         <v>18</v>
       </c>
       <c r="D196" s="10">
-        <v>45542</v>
+        <v>45907</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>23</v>
@@ -10621,7 +10586,7 @@
         <v>18</v>
       </c>
       <c r="D199" s="10">
-        <v>45545</v>
+        <v>45910</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>19</v>
@@ -10744,7 +10709,7 @@
         <v>18</v>
       </c>
       <c r="D202" s="10">
-        <v>45548</v>
+        <v>45913</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>23</v>
@@ -10867,7 +10832,7 @@
         <v>18</v>
       </c>
       <c r="D205" s="10">
-        <v>45551</v>
+        <v>45916</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>19</v>
@@ -10990,7 +10955,7 @@
         <v>18</v>
       </c>
       <c r="D208" s="10">
-        <v>45554</v>
+        <v>45919</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>23</v>
@@ -11113,7 +11078,7 @@
         <v>18</v>
       </c>
       <c r="D211" s="10">
-        <v>45557</v>
+        <v>45922</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>19</v>
@@ -11236,7 +11201,7 @@
         <v>18</v>
       </c>
       <c r="D214" s="10">
-        <v>45560</v>
+        <v>45925</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>23</v>
@@ -11359,7 +11324,7 @@
         <v>18</v>
       </c>
       <c r="D217" s="10">
-        <v>45563</v>
+        <v>45928</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>19</v>
@@ -11482,7 +11447,7 @@
         <v>18</v>
       </c>
       <c r="D220" s="10">
-        <v>45566</v>
+        <v>45931</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>23</v>
@@ -11605,7 +11570,7 @@
         <v>18</v>
       </c>
       <c r="D223" s="10">
-        <v>45569</v>
+        <v>45934</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>19</v>
@@ -11728,7 +11693,7 @@
         <v>18</v>
       </c>
       <c r="D226" s="10">
-        <v>45572</v>
+        <v>45937</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>23</v>
@@ -11851,7 +11816,7 @@
         <v>18</v>
       </c>
       <c r="D229" s="10">
-        <v>45575</v>
+        <v>45940</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>19</v>
@@ -11974,7 +11939,7 @@
         <v>18</v>
       </c>
       <c r="D232" s="10">
-        <v>45578</v>
+        <v>45943</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>23</v>
@@ -12097,7 +12062,7 @@
         <v>18</v>
       </c>
       <c r="D235" s="10">
-        <v>45581</v>
+        <v>45946</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>19</v>
@@ -12220,7 +12185,7 @@
         <v>18</v>
       </c>
       <c r="D238" s="10">
-        <v>45584</v>
+        <v>45949</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>23</v>
@@ -12343,7 +12308,7 @@
         <v>18</v>
       </c>
       <c r="D241" s="10">
-        <v>45587</v>
+        <v>45952</v>
       </c>
       <c r="E241" s="8" t="s">
         <v>19</v>
@@ -12466,7 +12431,7 @@
         <v>18</v>
       </c>
       <c r="D244" s="10">
-        <v>45590</v>
+        <v>45955</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>23</v>
@@ -12589,7 +12554,7 @@
         <v>18</v>
       </c>
       <c r="D247" s="10">
-        <v>45593</v>
+        <v>45958</v>
       </c>
       <c r="E247" s="8" t="s">
         <v>19</v>
@@ -12712,7 +12677,7 @@
         <v>18</v>
       </c>
       <c r="D250" s="10">
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>23</v>
@@ -12835,7 +12800,7 @@
         <v>18</v>
       </c>
       <c r="D253" s="10">
-        <v>45599</v>
+        <v>45964</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>19</v>
@@ -12958,7 +12923,7 @@
         <v>18</v>
       </c>
       <c r="D256" s="10">
-        <v>45602</v>
+        <v>45967</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>23</v>
@@ -13040,7 +13005,7 @@
         <v>18</v>
       </c>
       <c r="D258" s="10">
-        <v>45604</v>
+        <v>45969</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>23</v>
@@ -13163,7 +13128,7 @@
         <v>18</v>
       </c>
       <c r="D261" s="10">
-        <v>45607</v>
+        <v>45972</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>19</v>
@@ -13286,7 +13251,7 @@
         <v>18</v>
       </c>
       <c r="D264" s="10">
-        <v>45610</v>
+        <v>45975</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>23</v>
@@ -13409,7 +13374,7 @@
         <v>18</v>
       </c>
       <c r="D267" s="10">
-        <v>45613</v>
+        <v>45978</v>
       </c>
       <c r="E267" s="8" t="s">
         <v>19</v>
@@ -13532,7 +13497,7 @@
         <v>18</v>
       </c>
       <c r="D270" s="10">
-        <v>45616</v>
+        <v>45981</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>23</v>
@@ -13655,7 +13620,7 @@
         <v>18</v>
       </c>
       <c r="D273" s="10">
-        <v>45619</v>
+        <v>45984</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>19</v>
@@ -13778,7 +13743,7 @@
         <v>18</v>
       </c>
       <c r="D276" s="10">
-        <v>45622</v>
+        <v>45987</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>23</v>
@@ -13901,7 +13866,7 @@
         <v>18</v>
       </c>
       <c r="D279" s="10">
-        <v>45625</v>
+        <v>45990</v>
       </c>
       <c r="E279" s="8" t="s">
         <v>19</v>
@@ -14024,7 +13989,7 @@
         <v>18</v>
       </c>
       <c r="D282" s="10">
-        <v>45628</v>
+        <v>45993</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>23</v>
@@ -14147,7 +14112,7 @@
         <v>18</v>
       </c>
       <c r="D285" s="10">
-        <v>45631</v>
+        <v>45996</v>
       </c>
       <c r="E285" s="8" t="s">
         <v>19</v>
@@ -14270,7 +14235,7 @@
         <v>18</v>
       </c>
       <c r="D288" s="10">
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>23</v>
@@ -14393,7 +14358,7 @@
         <v>18</v>
       </c>
       <c r="D291" s="10">
-        <v>45637</v>
+        <v>46002</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>19</v>
@@ -14516,7 +14481,7 @@
         <v>18</v>
       </c>
       <c r="D294" s="10">
-        <v>45640</v>
+        <v>46005</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>23</v>
@@ -14695,6 +14660,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -14949,34 +14934,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>